--- a/medicine/Psychotrope/Caffè_Fiorio/Caffè_Fiorio.xlsx
+++ b/medicine/Psychotrope/Caffè_Fiorio/Caffè_Fiorio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Fiorio</t>
+          <t>Caffè_Fiorio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Caffè Fiorio est le nom d'un célèbre café-glacier, situé Via Po (it) à Turin. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Fiorio</t>
+          <t>Caffè_Fiorio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouvert en 1780[1], il a été le lieu de rencontre, au milieu du XIXe siècle, des artistes et des hommes politiques influents parmi lesquels Urbano Rattazzi, Massimo d'Azeglio, Giovanni Prati, Camillo Cavour et Cesare Balbo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvert en 1780, il a été le lieu de rencontre, au milieu du XIXe siècle, des artistes et des hommes politiques influents parmi lesquels Urbano Rattazzi, Massimo d'Azeglio, Giovanni Prati, Camillo Cavour et Cesare Balbo.
 Considéré comme un lieu d'intrigues, il était défini comme le caffè dei Macchiavelli e dei Codini et, chaque matin, le roi Charles Albert de Savoie aimait bien savoir ce qui s'était dit, la veille, entre les murs du Caffè Fiorio.
 Aujourd'hui, dans un décor feutré, le Fiorio conserve une atmosphère risorgimentale où l'on peut apprécier, lors d'un petit-déjeuner ou déjeuner, ses pâtisseries ou spécialités telles les marrons glacés,  cioccolata calda (chocolat chaud)  et surtout ses célèbres crèmes glacées comme le fameux gelato al gianduia. Au premier étage de l'établissement, jusqu'en juin 2010, une série de  concerts musicaux est organisée tous les vendredis soir.
 </t>
